--- a/БД диффузия B.xlsx
+++ b/БД диффузия B.xlsx
@@ -111,11 +111,69 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ID_D4DFDD399F884B7A9A7A47C52877A87D"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9631680" y="2733040"/>
+          <a:ext cx="16583025" cy="9153525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="ID_8495D47118BD4C689C69CD3F2A67FF07"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9631680" y="3622040"/>
+          <a:ext cx="12172950" cy="9725025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Файл</t>
   </si>
@@ -153,7 +211,25 @@
     <t>почти нет влияния</t>
   </si>
   <si>
+    <t>203 (Nuclon)</t>
+  </si>
+  <si>
     <t>zona = 2</t>
+  </si>
+  <si>
+    <t>Слабое влияние, надо увеличивать коэффициент</t>
+  </si>
+  <si>
+    <t>204 (Nuclon)</t>
+  </si>
+  <si>
+    <t>Теперь слишком сильное влияние, надо уменьшить</t>
+  </si>
+  <si>
+    <t>TS стала заметно дальше (на 5 а.е.)</t>
+  </si>
+  <si>
+    <t>205 (Nuclon)</t>
   </si>
 </sst>
 </file>
@@ -166,7 +242,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,13 +260,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -659,152 +728,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -822,19 +891,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1204,7 +1267,7 @@
   <dimension ref="A4:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1214,7 +1277,7 @@
     <col min="3" max="3" width="27.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="78.3333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.4444444444444" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.4444444444444" style="2" customWidth="1"/>
     <col min="7" max="9" width="36" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1245,17 +1308,17 @@
       <c r="B5" s="5">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="str">
+      <c r="E5" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_EC545C8B0992480A9D1DF564BA8A52FB",1)</f>
         <v>=DISPIMG("ID_EC545C8B0992480A9D1DF564BA8A52FB",1)</v>
       </c>
-      <c r="F5" s="7" t="str">
+      <c r="F5" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_E21E87272690456EADBB2DE2EEBAD22F",1)</f>
         <v>=DISPIMG("ID_E21E87272690456EADBB2DE2EEBAD22F",1)</v>
       </c>
@@ -1267,13 +1330,13 @@
       <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8" t="str">
+      <c r="E6" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_2C746D1F37654287955214324DF2E5E4",1)</f>
         <v>=DISPIMG("ID_2C746D1F37654287955214324DF2E5E4",1)</v>
       </c>
@@ -1282,160 +1345,188 @@
       </c>
     </row>
     <row r="7" ht="70" customHeight="1" spans="1:6">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="5">
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_D4DFDD399F884B7A9A7A47C52877A87D",1)</f>
+        <v>=DISPIMG("ID_D4DFDD399F884B7A9A7A47C52877A87D",1)</v>
+      </c>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" ht="70" customHeight="1" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f>_xlfn.DISPIMG("ID_8495D47118BD4C689C69CD3F2A67FF07",1)</f>
+        <v>=DISPIMG("ID_8495D47118BD4C689C69CD3F2A67FF07",1)</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" ht="70" customHeight="1" spans="1:6">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" ht="70" customHeight="1" spans="1:6">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" ht="70" customHeight="1" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" ht="70" customHeight="1" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" ht="70" customHeight="1" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" ht="70" customHeight="1" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" ht="70" customHeight="1" spans="1:6">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" ht="70" customHeight="1" spans="1:6">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" ht="70" customHeight="1" spans="1:6">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" ht="70" customHeight="1" spans="1:6">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" ht="70" customHeight="1" spans="1:6">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" ht="70" customHeight="1" spans="1:6">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" ht="32" customHeight="1" spans="1:6">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" ht="32" customHeight="1" spans="1:6">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" ht="32" customHeight="1" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" ht="32" customHeight="1" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" ht="32" customHeight="1" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" ht="32" customHeight="1"/>
     <row r="27" ht="32" customHeight="1"/>

--- a/БД диффузия B.xlsx
+++ b/БД диффузия B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13440"/>
+    <workbookView windowWidth="25600" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,11 +169,40 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="ID_7C6EDC657CF74F669413E00920AEB08A"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810115" y="4514850"/>
+          <a:ext cx="15449550" cy="9334500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Файл</t>
   </si>
@@ -230,17 +259,30 @@
   </si>
   <si>
     <t>205 (Nuclon)</t>
+  </si>
+  <si>
+    <t>206 (Nuclon)</t>
+  </si>
+  <si>
+    <t>tau = 2.5</t>
+  </si>
+  <si>
+    <t>207 (Iprobe)</t>
+  </si>
+  <si>
+    <t>tau = 2.5 * V/3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mmm"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -873,7 +915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -897,6 +939,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -989,7 +1034,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9631680" y="955040"/>
+          <a:off x="9810115" y="958850"/>
           <a:ext cx="243840" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1266,18 +1311,18 @@
   <sheetPr/>
   <dimension ref="A4:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.4444444444444" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5545454545455" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.3363636363636" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.3363636363636" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.4454545454545" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.4454545454545" style="2" customWidth="1"/>
     <col min="7" max="9" width="36" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1395,23 +1440,38 @@
         <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f>_xlfn.DISPIMG("ID_7C6EDC657CF74F669413E00920AEB08A",1)</f>
+        <v>=DISPIMG("ID_7C6EDC657CF74F669413E00920AEB08A",1)</v>
+      </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" ht="70" customHeight="1" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" ht="70" customHeight="1" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>

--- a/БД диффузия B.xlsx
+++ b/БД диффузия B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10400"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,11 +198,101 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="ID_37AAEB8F681448CF9445B0A04C8FE6EC"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9631680" y="5400040"/>
+          <a:ext cx="9201150" cy="9658350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="ID_D7D9BFED532C4DA3B9D1A299DB060038"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9631680" y="5400040"/>
+          <a:ext cx="16516350" cy="9725025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="ID_A5BF251400F74C37BBF9DBC2193DB668"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9631680" y="6289040"/>
+          <a:ext cx="15801975" cy="9734550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+  <si>
+    <t>Новые параметры модели</t>
+  </si>
   <si>
     <t>Файл</t>
   </si>
@@ -1034,7 +1124,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9810115" y="958850"/>
+          <a:off x="9631680" y="1137920"/>
           <a:ext cx="243840" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1309,55 +1399,60 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:F40"/>
+  <dimension ref="A3:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.2181818181818" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5545454545455" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.3363636363636" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.3363636363636" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.4454545454545" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.4454545454545" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.3333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.4444444444444" style="2" customWidth="1"/>
     <col min="7" max="9" width="36" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" ht="28.8" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" ht="32" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="70" customHeight="1" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5">
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_EC545C8B0992480A9D1DF564BA8A52FB",1)</f>
@@ -1370,37 +1465,37 @@
     </row>
     <row r="6" ht="70" customHeight="1" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_2C746D1F37654287955214324DF2E5E4",1)</f>
         <v>=DISPIMG("ID_2C746D1F37654287955214324DF2E5E4",1)</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="70" customHeight="1" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5">
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="6" t="str">
         <f>_xlfn.DISPIMG("ID_D4DFDD399F884B7A9A7A47C52877A87D",1)</f>
@@ -1410,37 +1505,37 @@
     </row>
     <row r="8" ht="70" customHeight="1" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5">
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_8495D47118BD4C689C69CD3F2A67FF07",1)</f>
         <v>=DISPIMG("ID_8495D47118BD4C689C69CD3F2A67FF07",1)</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="70" customHeight="1" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="5">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_7C6EDC657CF74F669413E00920AEB08A",1)</f>
@@ -1450,30 +1545,39 @@
     </row>
     <row r="10" ht="70" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="7" t="str">
+        <f>_xlfn.DISPIMG("ID_D7D9BFED532C4DA3B9D1A299DB060038",1)</f>
+        <v>=DISPIMG("ID_D7D9BFED532C4DA3B9D1A299DB060038",1)</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f>_xlfn.DISPIMG("ID_37AAEB8F681448CF9445B0A04C8FE6EC",1)</f>
+        <v>=DISPIMG("ID_37AAEB8F681448CF9445B0A04C8FE6EC",1)</v>
+      </c>
     </row>
     <row r="11" ht="70" customHeight="1" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="str">
+        <f>_xlfn.DISPIMG("ID_A5BF251400F74C37BBF9DBC2193DB668",1)</f>
+        <v>=DISPIMG("ID_A5BF251400F74C37BBF9DBC2193DB668",1)</v>
+      </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" ht="70" customHeight="1" spans="1:6">
@@ -1604,6 +1708,9 @@
     <row r="39" ht="32" customHeight="1"/>
     <row r="40" ht="32" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/БД диффузия B.xlsx
+++ b/БД диффузия B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="30720" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,11 +285,40 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="ID_CF9AEB8A9A7F44C7A31EBF0E74DD0408"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9631680" y="7178040"/>
+          <a:ext cx="16678275" cy="9734550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Новые параметры модели</t>
   </si>
@@ -361,6 +390,9 @@
   </si>
   <si>
     <t>tau = 2.5 * V/3</t>
+  </si>
+  <si>
+    <t>Модель 2020 года, слишком слабая диффузия</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1025,14 +1057,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1124,7 +1162,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9631680" y="1137920"/>
+          <a:off x="9631680" y="955040"/>
           <a:ext cx="243840" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1401,8 +1439,8 @@
   <sheetPr/>
   <dimension ref="A3:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1416,7 +1454,7 @@
     <col min="7" max="9" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="28.8" spans="1:1">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,116 +1619,127 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" ht="70" customHeight="1" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="8">
+        <v>212</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f>_xlfn.DISPIMG("ID_CF9AEB8A9A7F44C7A31EBF0E74DD0408",1)</f>
+        <v>=DISPIMG("ID_CF9AEB8A9A7F44C7A31EBF0E74DD0408",1)</v>
+      </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" ht="70" customHeight="1" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" ht="70" customHeight="1" spans="1:6">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" ht="70" customHeight="1" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" ht="70" customHeight="1" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" ht="70" customHeight="1" spans="1:6">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" ht="70" customHeight="1" spans="1:6">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" ht="70" customHeight="1" spans="1:6">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" ht="70" customHeight="1" spans="1:6">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" ht="32" customHeight="1" spans="1:6">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" ht="32" customHeight="1" spans="1:6">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" ht="32" customHeight="1" spans="1:6">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" ht="32" customHeight="1" spans="1:6">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" ht="32" customHeight="1" spans="1:6">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" ht="32" customHeight="1"/>
     <row r="27" ht="32" customHeight="1"/>
